--- a/Template/Export/Sari_R4_15.xlsx
+++ b/Template/Export/Sari_R4_15.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAA3864-04F9-4482-A80C-F7A80707D4BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E35A646-1C1D-4F1E-A3E8-CA9CD52D7E29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,20 @@
     <sheet name="Virus_VSR_GEO" sheetId="5" r:id="rId4"/>
     <sheet name="Leyendas" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="140">
   <si>
     <t>SE</t>
   </si>
@@ -96,9 +104,6 @@
   </si>
   <si>
     <t>A(H1)</t>
-  </si>
-  <si>
-    <t>A(H3)</t>
   </si>
   <si>
     <t>B Victoria</t>
@@ -350,9 +355,6 @@
     <t>Positivo Influenza A</t>
   </si>
   <si>
-    <t>EV</t>
-  </si>
-  <si>
     <t>Numero de los casos</t>
   </si>
   <si>
@@ -375,12 +377,6 @@
   </si>
   <si>
     <t>% Estacional (H3)</t>
-  </si>
-  <si>
-    <t>País: Honduras (Centinela)</t>
-  </si>
-  <si>
-    <t>Vigilancia de Influenza y otros Virus Respiratorios 2019</t>
   </si>
   <si>
     <r>
@@ -412,21 +408,6 @@
       </rPr>
       <t xml:space="preserve"> Escribir en las celdas en amarillo. Indicar el número de muestras negativas para obtener el % de positividad. </t>
     </r>
-  </si>
-  <si>
-    <t>País: Honduras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vigilancia de Influenza </t>
-  </si>
-  <si>
-    <t>Numero de total casos positivas de influenza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vigilancia de VSR </t>
-  </si>
-  <si>
-    <t>Numero de total casos positivas de VSR</t>
   </si>
   <si>
     <t>ATLANTIDA</t>
@@ -487,6 +468,18 @@
   </si>
   <si>
     <t>Range end</t>
+  </si>
+  <si>
+    <t>A(H3N2)</t>
+  </si>
+  <si>
+    <t>Distribución de virus de influenza por provincia de residencia del caso</t>
+  </si>
+  <si>
+    <t>Distribución de virus de VSR por provincia de residencia del caso</t>
+  </si>
+  <si>
+    <t>Otros</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1013,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1609,6 +1602,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1837,7 +1839,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1976,6 +1978,7 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1987,6 +1990,9 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="37" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2370,7 +2376,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Porcentaje de Pruebas Positivas a Influenza, en comparación con Otros Virus Respiratorios, por semana epidemiológica. Honduras 2019</c:v>
+              <c:v>Porcentaje de Pruebas Positivas a Influenza, en comparación con Otros Virus Respiratorios, por semana epidemiológica. Honduras, 2019</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -4186,7 +4192,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Proporción acumulada de los virus de influenza. Honduras 2019</c:v>
+              <c:v>Proporción acumulada de los virus de influenza. Honduras, 2019</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -4260,7 +4266,7 @@
                   <c:v>A(H1)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>A(H3)</c:v>
+                  <c:v>A(H3N2)</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>B Victoria</c:v>
@@ -4353,7 +4359,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:ln w="12700">
                 <a:solidFill>
@@ -4373,7 +4379,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="33CCCC"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="12700">
                 <a:solidFill>
@@ -4394,8 +4402,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="12700">
@@ -4417,7 +4424,8 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="12700">
@@ -4438,7 +4446,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="12700">
                 <a:solidFill>
@@ -4493,7 +4504,7 @@
             <c:strRef>
               <c:f>Virus!$D$5:$L$5</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>A(H1N1)pdm09</c:v>
                 </c:pt>
@@ -4504,21 +4515,18 @@
                   <c:v>A no subtipificable</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>A(H1)</c:v>
+                  <c:v>A(H3N2)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>A(H3)</c:v>
+                  <c:v>B Victoria</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>B Victoria</c:v>
+                  <c:v>B Victoria ∆162/163</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>B Victoria ∆162/163</c:v>
+                  <c:v>B Yamagata</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>B Yamagata</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>B linaje no determinado</c:v>
                 </c:pt>
               </c:strCache>
@@ -4529,7 +4537,7 @@
               <c:f>Virus!$D$58:$L$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4548,10 +4556,10 @@
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4682,7 +4690,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Distribución de influenza (tipos y subtipos) por semana epidemiológica. Honduras 2019</c:v>
+              <c:v>Distribución de influenza (tipos y subtipos) por semana epidemiológica. Honduras, 2019</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -5557,10 +5565,6 @@
           <c:val>
             <c:numRef>
               <c:f>Virus!$G$6:$G$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -5578,7 +5582,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A(H3)</c:v>
+                  <c:v>A(H3N2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6411,7 +6415,7 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:legendEntry>
-        <c:idx val="6"/>
+        <c:idx val="5"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -6509,7 +6513,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Proporción acumulada de los virus de influenza y otros virus respiratorios. Honduras 2019</c:v>
+              <c:v>Proporción acumulada de los virus de influenza y otros virus respiratorios. Honduras, 2019</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -6583,7 +6587,7 @@
                   <c:v>A(H1)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>A(H3)</c:v>
+                  <c:v>A(H3N2)</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>B Victoria</c:v>
@@ -6619,7 +6623,7 @@
                   <c:v>Bocavirus</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>EV</c:v>
+                  <c:v>Otros</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6700,7 +6704,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:ln w="12700">
                 <a:solidFill>
@@ -6720,7 +6724,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="33CCCC"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="12700">
                 <a:solidFill>
@@ -6741,8 +6747,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="12700">
@@ -6764,7 +6769,8 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="12700">
@@ -6785,7 +6791,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="99CC00"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="12700">
                 <a:solidFill>
@@ -6805,7 +6814,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF99CC"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="12700">
                 <a:solidFill>
@@ -6885,7 +6894,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="336600"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="12700">
                 <a:solidFill>
@@ -6980,7 +6992,7 @@
             <c:strRef>
               <c:f>Virus!$D$5:$T$5</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>A(H1N1)pdm09</c:v>
                 </c:pt>
@@ -6991,46 +7003,43 @@
                   <c:v>A no subtipificable</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>A(H1)</c:v>
+                  <c:v>A(H3N2)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>A(H3)</c:v>
+                  <c:v>B Victoria</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>B Victoria</c:v>
+                  <c:v>B Victoria ∆162/163</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>B Victoria ∆162/163</c:v>
+                  <c:v>B Yamagata</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>B Yamagata</c:v>
+                  <c:v>B linaje no determinado</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>B linaje no determinado</c:v>
+                  <c:v>Parainfluenza </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Parainfluenza </c:v>
+                  <c:v>VSR </c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>VSR </c:v>
+                  <c:v>Adenovirus</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Adenovirus</c:v>
+                  <c:v>Metapneumovirus</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Metapneumovirus</c:v>
+                  <c:v>Rinovirus</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Rinovirus</c:v>
+                  <c:v>Coronavirus</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Coronavirus</c:v>
+                  <c:v>Bocavirus</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Bocavirus</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>EV</c:v>
+                  <c:v>Otros</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7040,7 +7049,7 @@
               <c:f>Virus!$D$58:$T$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7059,6 +7068,9 @@
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7084,9 +7096,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7217,7 +7226,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Distribución de virus influenza y otros virus respiratorios en vigilancia centinela IRAG por semana epidmiológica. Honduras 2019</c:v>
+              <c:v>Distribución de virus influenza y otros virus respiratorios en vigilancia centinela IRAG por semana epidmiológica. Honduras, 2019</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -8076,10 +8085,6 @@
           <c:val>
             <c:numRef>
               <c:f>Virus!$G$6:$G$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -8097,7 +8102,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>A(H3)</c:v>
+                  <c:v>A(H3N2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9749,7 +9754,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EV</c:v>
+                  <c:v>Otros</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10175,9 +10180,12 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Virus!$AA$5</c:f>
+              <c:f>Virus!$AA$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% Positivos</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -10657,7 +10665,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Distribución de influenza B según linaje y semana epidemiológica. Honduras 2019</c:v>
+              <c:v>Distribución de influenza B según linaje y semana epidemiológica. Honduras, 2019</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -10720,7 +10728,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="009900"/>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
@@ -10933,7 +10943,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="CC0000"/>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -11139,7 +11151,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx2">
+              <a:schemeClr val="accent3">
                 <a:lumMod val="60000"/>
                 <a:lumOff val="40000"/>
               </a:schemeClr>
@@ -11353,6 +11365,14 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
@@ -11890,7 +11910,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="CV5">
+        <xdr:cNvPr id="5" name="CV6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
@@ -12378,7 +12398,7 @@
   <dimension ref="A1:BZ75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="A3" sqref="A3:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12386,19 +12406,21 @@
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="12.140625" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" customWidth="1"/>
     <col min="12" max="12" width="18.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
     <col min="14" max="14" width="9.42578125" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.42578125" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" customWidth="1"/>
     <col min="20" max="20" width="9.42578125" customWidth="1"/>
     <col min="21" max="21" width="14.85546875" customWidth="1"/>
     <col min="22" max="22" width="16.28515625" customWidth="1"/>
@@ -13806,249 +13828,252 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="81" t="s">
-        <v>109</v>
-      </c>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="81" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="82"/>
-      <c r="AM1" s="82"/>
-      <c r="AN1" s="82"/>
-      <c r="AO1" s="82"/>
-      <c r="AP1" s="82"/>
-      <c r="AQ1" s="83"/>
+      <c r="A1" s="61" t="str">
+        <f>"País: "&amp;Leyendas!$C$2&amp; IF(OR(Leyendas!$E$2 &lt;&gt;"",Leyendas!$D$2 &lt;&gt;"" ), " - ", "") &amp; IF(Leyendas!$E$2&lt;&gt;"",Leyendas!$E$1,IF(Leyendas!$D$2&lt;&gt;"",Leyendas!$D$1,"")) &amp; IF(Leyendas!$E$2&lt;&gt;""," - " &amp; Leyendas!$E$2,IF(Leyendas!$D$2&lt;&gt;""," - " &amp; Leyendas!$D$2,""))</f>
+        <v>País: Honduras</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="84"/>
+      <c r="AQ1" s="85"/>
     </row>
     <row r="2" spans="1:78" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="85"/>
-      <c r="AP2" s="85"/>
-      <c r="AQ2" s="86"/>
+      <c r="A2" s="61" t="str">
+        <f>"Vigilancia de Influenza y otros Virus Respiratorios - " &amp; Leyendas!$G$2 &amp; ", "  &amp; IF(Leyendas!$J$2 &lt;&gt; Leyendas!$K$2,Leyendas!$J$2 &amp; " - " &amp; Leyendas!$K$2,Leyendas!$K$2)</f>
+        <v>Vigilancia de Influenza y otros Virus Respiratorios - IRAG, 2019</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="87"/>
+      <c r="AO2" s="87"/>
+      <c r="AP2" s="87"/>
+      <c r="AQ2" s="88"/>
     </row>
     <row r="3" spans="1:78" s="2" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="88"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="88"/>
-      <c r="AD3" s="88"/>
-      <c r="AE3" s="88"/>
-      <c r="AF3" s="88"/>
-      <c r="AG3" s="88"/>
-      <c r="AH3" s="88"/>
-      <c r="AI3" s="88"/>
-      <c r="AJ3" s="88"/>
-      <c r="AK3" s="88"/>
-      <c r="AL3" s="88"/>
-      <c r="AM3" s="88"/>
-      <c r="AN3" s="88"/>
-      <c r="AO3" s="88"/>
-      <c r="AP3" s="88"/>
-      <c r="AQ3" s="89"/>
+      <c r="A3" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="90"/>
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="90"/>
+      <c r="AO3" s="90"/>
+      <c r="AP3" s="90"/>
+      <c r="AQ3" s="91"/>
     </row>
     <row r="4" spans="1:78" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="62" t="s">
+      <c r="A4" s="63" t="str">
+        <f>IF(Leyendas!$E$2&lt;&gt;"",Leyendas!$E$1,IF(Leyendas!$D$2&lt;&gt;"",Leyendas!$D$1,Leyendas!$C$1))</f>
+        <v>País</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="94" t="s">
+      <c r="D4" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="95" t="s">
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="96" t="s">
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="69" t="s">
+      <c r="W4" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="69" t="s">
+      <c r="X4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="69" t="s">
+      <c r="Y4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="72" t="s">
+      <c r="Z4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB4" s="74" t="s">
+      <c r="AA4" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="76" t="s">
+      <c r="AC4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="78" t="s">
+      <c r="AD4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="80"/>
-      <c r="AI4" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ4" s="69" t="s">
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ4" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="AK4" s="69" t="s">
+      <c r="AK4" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="AL4" s="69" t="s">
+      <c r="AL4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="AM4" s="69" t="s">
+      <c r="AM4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="AN4" s="69" t="s">
+      <c r="AN4" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="AO4" s="69" t="s">
+      <c r="AO4" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="AP4" s="69" t="s">
+      <c r="AP4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="AQ4" s="72" t="s">
+      <c r="AQ4" s="74" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:78" s="3" customFormat="1" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="39" t="s">
         <v>20</v>
       </c>
@@ -14062,34 +14087,34 @@
         <v>23</v>
       </c>
       <c r="H5" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="J5" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="K5" s="42" t="s">
+      <c r="L5" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="M5" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="N5" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="43" t="s">
+      <c r="O5" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="43" t="s">
+      <c r="P5" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="Q5" s="43" t="s">
         <v>31</v>
-      </c>
-      <c r="Q5" s="43" t="s">
-        <v>32</v>
       </c>
       <c r="R5" s="43" t="s">
         <v>17</v>
@@ -14098,41 +14123,41 @@
         <v>18</v>
       </c>
       <c r="T5" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="U5" s="97"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="73"/>
-      <c r="AA5" s="91"/>
-      <c r="AB5" s="75"/>
-      <c r="AC5" s="77"/>
+        <v>139</v>
+      </c>
+      <c r="U5" s="99"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="79"/>
       <c r="AD5" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE5" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF5" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="AE5" s="45" t="s">
+      <c r="AG5" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="AF5" s="45" t="s">
+      <c r="AH5" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="AG5" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH5" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI5" s="70"/>
-      <c r="AJ5" s="70"/>
-      <c r="AK5" s="70"/>
-      <c r="AL5" s="70"/>
-      <c r="AM5" s="70"/>
-      <c r="AN5" s="70"/>
-      <c r="AO5" s="70"/>
-      <c r="AP5" s="70"/>
-      <c r="AQ5" s="73"/>
+      <c r="AI5" s="72"/>
+      <c r="AJ5" s="72"/>
+      <c r="AK5" s="72"/>
+      <c r="AL5" s="72"/>
+      <c r="AM5" s="72"/>
+      <c r="AN5" s="72"/>
+      <c r="AO5" s="72"/>
+      <c r="AP5" s="72"/>
+      <c r="AQ5" s="75"/>
     </row>
     <row r="6" spans="1:78" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
@@ -14143,7 +14168,7 @@
         <v>2019</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -14255,7 +14280,7 @@
         <v>2019</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -14364,7 +14389,7 @@
         <v>2019</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -14473,7 +14498,7 @@
         <v>2019</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -14582,7 +14607,7 @@
         <v>2019</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -14691,7 +14716,7 @@
         <v>2019</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -14800,7 +14825,7 @@
         <v>2019</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -14909,7 +14934,7 @@
         <v>2019</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -15018,7 +15043,7 @@
         <v>2019</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -15127,7 +15152,7 @@
         <v>2019</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -15236,7 +15261,7 @@
         <v>2019</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -15345,7 +15370,7 @@
         <v>2019</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -15454,7 +15479,7 @@
         <v>2019</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -15563,7 +15588,7 @@
         <v>2019</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -15672,7 +15697,7 @@
         <v>2019</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -15781,7 +15806,7 @@
         <v>2019</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -15890,7 +15915,7 @@
         <v>2019</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -15999,7 +16024,7 @@
         <v>2019</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -16108,7 +16133,7 @@
         <v>2019</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -16217,7 +16242,7 @@
         <v>2019</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -16326,7 +16351,7 @@
         <v>2019</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -16435,7 +16460,7 @@
         <v>2019</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -16544,7 +16569,7 @@
         <v>2019</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -16653,7 +16678,7 @@
         <v>2019</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -16762,7 +16787,7 @@
         <v>2019</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -16871,7 +16896,7 @@
         <v>2019</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -16980,7 +17005,7 @@
         <v>2019</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -17089,7 +17114,7 @@
         <v>2019</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -17198,7 +17223,7 @@
         <v>2019</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -17307,7 +17332,7 @@
         <v>2019</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -17416,7 +17441,7 @@
         <v>2019</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -17525,7 +17550,7 @@
         <v>2019</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -17634,7 +17659,7 @@
         <v>2019</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -17743,7 +17768,7 @@
         <v>2019</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -17852,7 +17877,7 @@
         <v>2019</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -17961,7 +17986,7 @@
         <v>2019</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -18070,7 +18095,7 @@
         <v>2019</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -18179,7 +18204,7 @@
         <v>2019</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -18288,7 +18313,7 @@
         <v>2019</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -18397,7 +18422,7 @@
         <v>2019</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -18506,7 +18531,7 @@
         <v>2019</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -18615,7 +18640,7 @@
         <v>2019</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -18724,7 +18749,7 @@
         <v>2019</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -18833,7 +18858,7 @@
         <v>2019</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -18942,7 +18967,7 @@
         <v>2019</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -19051,7 +19076,7 @@
         <v>2019</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -19160,7 +19185,7 @@
         <v>2019</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -19269,7 +19294,7 @@
         <v>2019</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -19363,16 +19388,16 @@
         <v/>
       </c>
       <c r="AR53" s="11"/>
-      <c r="AV53" s="71" t="str">
+      <c r="AV53" s="73" t="str">
         <f>"INDICADORES ACUMULADOS PARA EL AÑO " &amp; Leyendas!$A$2 &amp; CHAR(10) &amp; "(para el cálculo se utilizaron muestras totales)"</f>
         <v>INDICADORES ACUMULADOS PARA EL AÑO 2019
 (para el cálculo se utilizaron muestras totales)</v>
       </c>
-      <c r="AW53" s="71"/>
-      <c r="AX53" s="71"/>
-      <c r="AY53" s="71"/>
-      <c r="AZ53" s="71"/>
-      <c r="BA53" s="71"/>
+      <c r="AW53" s="73"/>
+      <c r="AX53" s="73"/>
+      <c r="AY53" s="73"/>
+      <c r="AZ53" s="73"/>
+      <c r="BA53" s="73"/>
       <c r="BY53" s="56"/>
       <c r="BZ53" s="56" t="str">
         <f t="shared" si="10"/>
@@ -19388,7 +19413,7 @@
         <v>2019</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
@@ -19482,13 +19507,13 @@
         <v/>
       </c>
       <c r="AR54" s="11"/>
-      <c r="AV54" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW54" s="64"/>
-      <c r="AX54" s="64"/>
-      <c r="AY54" s="64"/>
-      <c r="AZ54" s="65"/>
+      <c r="AV54" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW54" s="66"/>
+      <c r="AX54" s="66"/>
+      <c r="AY54" s="66"/>
+      <c r="AZ54" s="67"/>
       <c r="BA54" s="24" t="e">
         <f>W58/V58</f>
         <v>#DIV/0!</v>
@@ -19508,7 +19533,7 @@
         <v>2019</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -19602,13 +19627,13 @@
         <v/>
       </c>
       <c r="AR55" s="11"/>
-      <c r="AV55" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW55" s="64"/>
-      <c r="AX55" s="64"/>
-      <c r="AY55" s="64"/>
-      <c r="AZ55" s="65"/>
+      <c r="AV55" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW55" s="66"/>
+      <c r="AX55" s="66"/>
+      <c r="AY55" s="66"/>
+      <c r="AZ55" s="67"/>
       <c r="BA55" s="24" t="e">
         <f>X58/V58</f>
         <v>#DIV/0!</v>
@@ -19628,7 +19653,7 @@
         <v>2019</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -19723,12 +19748,12 @@
       </c>
       <c r="AR56" s="11"/>
       <c r="AV56" s="28"/>
-      <c r="AW56" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="AX56" s="64"/>
-      <c r="AY56" s="64"/>
-      <c r="AZ56" s="65"/>
+      <c r="AW56" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX56" s="66"/>
+      <c r="AY56" s="66"/>
+      <c r="AZ56" s="67"/>
       <c r="BA56" s="24" t="e">
         <f>Y58/V58</f>
         <v>#DIV/0!</v>
@@ -19748,7 +19773,7 @@
         <v>2019</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -19843,12 +19868,12 @@
       </c>
       <c r="AR57" s="11"/>
       <c r="AV57" s="28"/>
-      <c r="AW57" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="AX57" s="64"/>
-      <c r="AY57" s="64"/>
-      <c r="AZ57" s="65"/>
+      <c r="AW57" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX57" s="66"/>
+      <c r="AY57" s="66"/>
+      <c r="AZ57" s="67"/>
       <c r="BA57" s="24" t="e">
         <f>Z58/V58</f>
         <v>#DIV/0!</v>
@@ -19861,95 +19886,98 @@
     </row>
     <row r="58" spans="1:78" s="21" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D58" s="18">
-        <f t="shared" ref="D58:Z58" si="18">SUM(D6:D57)</f>
+        <f>SUM(D$6:D57)</f>
         <v>0</v>
       </c>
       <c r="E58" s="18">
-        <f t="shared" si="18"/>
+        <f>SUM(E$6:E57)</f>
         <v>0</v>
       </c>
       <c r="F58" s="18">
-        <f t="shared" si="18"/>
+        <f>SUM(F$6:F57)</f>
         <v>0</v>
       </c>
       <c r="G58" s="18">
-        <f t="shared" si="18"/>
+        <f>SUM(G$6:G57)</f>
         <v>0</v>
       </c>
       <c r="H58" s="18">
-        <f t="shared" si="18"/>
+        <f>SUM(H$6:H57)</f>
         <v>0</v>
       </c>
       <c r="I58" s="18">
-        <f t="shared" si="18"/>
+        <f>SUM(I$6:I57)</f>
         <v>0</v>
       </c>
-      <c r="J58" s="18"/>
+      <c r="J58" s="18">
+        <f>SUM(J$6:J57)</f>
+        <v>0</v>
+      </c>
       <c r="K58" s="18">
-        <f t="shared" si="18"/>
+        <f>SUM(K$6:K57)</f>
         <v>0</v>
       </c>
       <c r="L58" s="18">
-        <f t="shared" si="18"/>
+        <f>SUM(L$6:L57)</f>
         <v>0</v>
       </c>
       <c r="M58" s="18">
-        <f t="shared" si="18"/>
+        <f>SUM(M$6:M57)</f>
         <v>0</v>
       </c>
       <c r="N58" s="18">
-        <f t="shared" si="18"/>
+        <f>SUM(N$6:N57)</f>
         <v>0</v>
       </c>
       <c r="O58" s="18">
-        <f t="shared" si="18"/>
+        <f>SUM(O$6:O57)</f>
         <v>0</v>
       </c>
       <c r="P58" s="18">
-        <f t="shared" si="18"/>
+        <f>SUM(P$6:P57)</f>
         <v>0</v>
       </c>
       <c r="Q58" s="18">
-        <f t="shared" si="18"/>
+        <f>SUM(Q$6:Q57)</f>
         <v>0</v>
       </c>
       <c r="R58" s="18">
-        <f t="shared" si="18"/>
+        <f>SUM(R$6:R57)</f>
         <v>0</v>
       </c>
       <c r="S58" s="18">
-        <f t="shared" si="18"/>
+        <f>SUM(S$6:S57)</f>
         <v>0</v>
       </c>
       <c r="T58" s="18">
-        <f t="shared" si="18"/>
+        <f>SUM(T$6:T57)</f>
         <v>0</v>
       </c>
       <c r="U58" s="18">
-        <f t="shared" si="18"/>
+        <f>SUM(U$6:U57)</f>
         <v>0</v>
       </c>
       <c r="V58" s="18">
-        <f>SUM(V6:V57)</f>
+        <f>SUM(V$6:V57)</f>
         <v>0</v>
       </c>
       <c r="W58" s="18">
-        <f>SUM(W6:W57)</f>
+        <f>SUM(W$6:W57)</f>
         <v>0</v>
       </c>
       <c r="X58" s="18">
-        <f t="shared" si="18"/>
+        <f>SUM(X$6:X57)</f>
         <v>0</v>
       </c>
       <c r="Y58" s="18">
-        <f t="shared" si="18"/>
+        <f>SUM(Y$6:Y57)</f>
         <v>0</v>
       </c>
       <c r="Z58" s="18">
-        <f t="shared" si="18"/>
+        <f>SUM(Z$6:Z57)</f>
         <v>0</v>
       </c>
       <c r="AA58" s="19" t="str">
@@ -20020,13 +20048,13 @@
         <f>IF($V58=0,"",T58/$V58)</f>
         <v/>
       </c>
-      <c r="AV58" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="AW58" s="67"/>
-      <c r="AX58" s="67"/>
-      <c r="AY58" s="67"/>
-      <c r="AZ58" s="68"/>
+      <c r="AV58" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW58" s="69"/>
+      <c r="AX58" s="69"/>
+      <c r="AY58" s="69"/>
+      <c r="AZ58" s="70"/>
       <c r="BA58" s="24" t="e">
         <f>SUM(M58:T58)/V58</f>
         <v>#DIV/0!</v>
@@ -20262,156 +20290,174 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:AT56"/>
+  <dimension ref="A1:AT57"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A56"/>
+      <selection activeCell="A3" sqref="A3:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1"/>
+    <col min="18" max="19" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" s="46" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
+      <c r="A1" s="101" t="str">
+        <f>"País: "&amp;Leyendas!$C$2&amp; IF(OR(Leyendas!$E$2 &lt;&gt;"",Leyendas!$D$2 &lt;&gt;"" ), " - ", "") &amp; IF(Leyendas!$E$2&lt;&gt;"",Leyendas!$E$1,IF(Leyendas!$D$2&lt;&gt;"",Leyendas!$D$1,"")) &amp; IF(Leyendas!$E$2&lt;&gt;""," - " &amp; Leyendas!$E$2,IF(Leyendas!$D$2&lt;&gt;""," - " &amp; Leyendas!$D$2,""))</f>
+        <v>País: Honduras</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
     </row>
     <row r="2" spans="1:46" s="46" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
+      <c r="A2" s="101" t="str">
+        <f>"Vigilancia de Influenza  - " &amp; Leyendas!$G$2&amp; ", "  &amp; IF(Leyendas!$J$2 &lt;&gt; Leyendas!$K$2,Leyendas!$J$2 &amp; " - " &amp; Leyendas!$K$2,Leyendas!$K$2)</f>
+        <v>Vigilancia de Influenza  - IRAG, 2019</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
     </row>
     <row r="3" spans="1:46" s="46" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
+      <c r="A3" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
     </row>
     <row r="4" spans="1:46" s="49" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
-        <v>94</v>
+      <c r="A4" s="47" t="str">
+        <f>IF(Leyendas!$E$2&lt;&gt;"",Leyendas!$E$1,IF(Leyendas!$D$2&lt;&gt;"",Leyendas!$D$1,Leyendas!$C$1))</f>
+        <v>País</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="N4" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="O4" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="P4" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="Q4" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="R4" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="S4" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="T4" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="U4" s="48" t="s">
         <v>133</v>
-      </c>
-      <c r="M4" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="N4" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="O4" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="P4" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q4" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="R4" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="S4" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="T4" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="U4" s="48" t="s">
-        <v>142</v>
       </c>
       <c r="AD4"/>
       <c r="AE4"/>
@@ -20433,7 +20479,7 @@
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="50">
         <v>2019</v>
@@ -20462,7 +20508,7 @@
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="52">
         <v>2019</v>
@@ -20491,7 +20537,7 @@
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="52">
         <v>2019</v>
@@ -20520,7 +20566,7 @@
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="52">
         <v>2019</v>
@@ -20549,7 +20595,7 @@
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="52">
         <v>2019</v>
@@ -20578,7 +20624,7 @@
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="52">
         <v>2019</v>
@@ -20607,7 +20653,7 @@
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="52">
         <v>2019</v>
@@ -20636,7 +20682,7 @@
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="52">
         <v>2019</v>
@@ -20665,7 +20711,7 @@
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="52">
         <v>2019</v>
@@ -20694,7 +20740,7 @@
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="52">
         <v>2019</v>
@@ -20723,7 +20769,7 @@
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" s="52">
         <v>2019</v>
@@ -20752,7 +20798,7 @@
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="52">
         <v>2019</v>
@@ -20781,7 +20827,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" s="52">
         <v>2019</v>
@@ -20810,7 +20856,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="52">
         <v>2019</v>
@@ -20839,7 +20885,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" s="52">
         <v>2019</v>
@@ -20868,7 +20914,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="52">
         <v>2019</v>
@@ -20897,7 +20943,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="52">
         <v>2019</v>
@@ -20926,7 +20972,7 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" s="52">
         <v>2019</v>
@@ -20955,7 +21001,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B23" s="52">
         <v>2019</v>
@@ -20984,7 +21030,7 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B24" s="52">
         <v>2019</v>
@@ -21013,7 +21059,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" s="52">
         <v>2019</v>
@@ -21042,7 +21088,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="52">
         <v>2019</v>
@@ -21071,7 +21117,7 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B27" s="52">
         <v>2019</v>
@@ -21100,7 +21146,7 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B28" s="52">
         <v>2019</v>
@@ -21129,7 +21175,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B29" s="52">
         <v>2019</v>
@@ -21158,7 +21204,7 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B30" s="52">
         <v>2019</v>
@@ -21187,7 +21233,7 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B31" s="52">
         <v>2019</v>
@@ -21216,7 +21262,7 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B32" s="52">
         <v>2019</v>
@@ -21245,7 +21291,7 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" s="52">
         <v>2019</v>
@@ -21274,7 +21320,7 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B34" s="52">
         <v>2019</v>
@@ -21303,7 +21349,7 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" s="52">
         <v>2019</v>
@@ -21332,7 +21378,7 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B36" s="52">
         <v>2019</v>
@@ -21361,7 +21407,7 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="52">
         <v>2019</v>
@@ -21390,7 +21436,7 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" s="52">
         <v>2019</v>
@@ -21419,7 +21465,7 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39" s="52">
         <v>2019</v>
@@ -21448,7 +21494,7 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B40" s="52">
         <v>2019</v>
@@ -21477,7 +21523,7 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B41" s="52">
         <v>2019</v>
@@ -21506,7 +21552,7 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42" s="52">
         <v>2019</v>
@@ -21535,7 +21581,7 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B43" s="52">
         <v>2019</v>
@@ -21564,7 +21610,7 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B44" s="52">
         <v>2019</v>
@@ -21593,7 +21639,7 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B45" s="52">
         <v>2019</v>
@@ -21622,7 +21668,7 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B46" s="52">
         <v>2019</v>
@@ -21651,7 +21697,7 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B47" s="52">
         <v>2019</v>
@@ -21680,7 +21726,7 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B48" s="52">
         <v>2019</v>
@@ -21709,7 +21755,7 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B49" s="52">
         <v>2019</v>
@@ -21738,7 +21784,7 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B50" s="52">
         <v>2019</v>
@@ -21767,7 +21813,7 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B51" s="52">
         <v>2019</v>
@@ -21796,7 +21842,7 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B52" s="52">
         <v>2019</v>
@@ -21825,7 +21871,7 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" s="52">
         <v>2019</v>
@@ -21854,7 +21900,7 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B54" s="52">
         <v>2019</v>
@@ -21883,7 +21929,7 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B55" s="52">
         <v>2019</v>
@@ -21912,7 +21958,7 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B56" s="52">
         <v>2019</v>
@@ -21939,6 +21985,84 @@
       <c r="T56" s="53"/>
       <c r="U56" s="53"/>
     </row>
+    <row r="57" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="B57" s="58"/>
+      <c r="C57" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="18">
+        <f>SUM(D$5:D56)</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="18">
+        <f>SUM(E$5:E56)</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="18">
+        <f>SUM(F$5:F56)</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="18">
+        <f>SUM(G$5:G56)</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="18">
+        <f>SUM(H$5:H56)</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="18">
+        <f>SUM(I$5:I56)</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="18">
+        <f>SUM(J$5:J56)</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="18">
+        <f>SUM(K$5:K56)</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="18">
+        <f>SUM(L$5:L56)</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="18">
+        <f>SUM(M$5:M56)</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="18">
+        <f>SUM(N$5:N56)</f>
+        <v>0</v>
+      </c>
+      <c r="O57" s="18">
+        <f>SUM(O$5:O56)</f>
+        <v>0</v>
+      </c>
+      <c r="P57" s="18">
+        <f>SUM(P$5:P56)</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="18">
+        <f>SUM(Q$5:Q56)</f>
+        <v>0</v>
+      </c>
+      <c r="R57" s="18">
+        <f>SUM(R$5:R56)</f>
+        <v>0</v>
+      </c>
+      <c r="S57" s="18">
+        <f>SUM(S$5:S56)</f>
+        <v>0</v>
+      </c>
+      <c r="T57" s="18">
+        <f>SUM(T$5:T56)</f>
+        <v>0</v>
+      </c>
+      <c r="U57" s="18">
+        <f>SUM(U$5:U56)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A3:U3"/>
@@ -21955,7 +22079,7 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:U56"/>
+  <dimension ref="A1:U57"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:U3"/>
@@ -21963,153 +22087,170 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="46" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
+      <c r="A1" s="101" t="str">
+        <f>"País: "&amp;Leyendas!$C$2&amp; IF(OR(Leyendas!$E$2 &lt;&gt;"",Leyendas!$D$2 &lt;&gt;"" ), " - ", "") &amp; IF(Leyendas!$E$2&lt;&gt;"",Leyendas!$E$1,IF(Leyendas!$D$2&lt;&gt;"",Leyendas!$D$1,"")) &amp; IF(Leyendas!$E$2&lt;&gt;""," - " &amp; Leyendas!$E$2,IF(Leyendas!$D$2&lt;&gt;""," - " &amp; Leyendas!$D$2,""))</f>
+        <v>País: Honduras</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
     </row>
     <row r="2" spans="1:21" s="46" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
+      <c r="A2" s="101" t="str">
+        <f>"Vigilancia de VSR  - " &amp; Leyendas!$G$2&amp; ", "  &amp; IF(Leyendas!$J$2 &lt;&gt; Leyendas!$K$2,Leyendas!$J$2 &amp; " - " &amp; Leyendas!$K$2,Leyendas!$K$2)</f>
+        <v>Vigilancia de VSR  - IRAG, 2019</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
     </row>
     <row r="3" spans="1:21" s="46" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
+      <c r="A3" s="100" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
     </row>
     <row r="4" spans="1:21" s="49" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
-        <v>94</v>
+      <c r="A4" s="54" t="str">
+        <f>IF(Leyendas!$E$2&lt;&gt;"",Leyendas!$E$1,IF(Leyendas!$D$2&lt;&gt;"",Leyendas!$D$1,Leyendas!$C$1))</f>
+        <v>País</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="55" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="N4" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="O4" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="P4" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="Q4" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="R4" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="S4" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="T4" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="U4" s="55" t="s">
         <v>133</v>
-      </c>
-      <c r="M4" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="N4" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="O4" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="P4" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q4" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="R4" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="S4" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="T4" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="U4" s="55" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="50">
         <v>2019</v>
@@ -22138,7 +22279,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="52">
         <v>2019</v>
@@ -22167,7 +22308,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="52">
         <v>2019</v>
@@ -22196,7 +22337,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="52">
         <v>2019</v>
@@ -22225,7 +22366,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="52">
         <v>2019</v>
@@ -22254,7 +22395,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="52">
         <v>2019</v>
@@ -22283,7 +22424,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="52">
         <v>2019</v>
@@ -22312,7 +22453,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="52">
         <v>2019</v>
@@ -22341,7 +22482,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="52">
         <v>2019</v>
@@ -22370,7 +22511,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="52">
         <v>2019</v>
@@ -22399,7 +22540,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" s="52">
         <v>2019</v>
@@ -22428,7 +22569,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="52">
         <v>2019</v>
@@ -22457,7 +22598,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" s="52">
         <v>2019</v>
@@ -22486,7 +22627,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="52">
         <v>2019</v>
@@ -22515,7 +22656,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" s="52">
         <v>2019</v>
@@ -22544,7 +22685,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="52">
         <v>2019</v>
@@ -22573,7 +22714,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="52">
         <v>2019</v>
@@ -22602,7 +22743,7 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" s="52">
         <v>2019</v>
@@ -22631,7 +22772,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B23" s="52">
         <v>2019</v>
@@ -22660,7 +22801,7 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B24" s="52">
         <v>2019</v>
@@ -22689,7 +22830,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" s="52">
         <v>2019</v>
@@ -22718,7 +22859,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="52">
         <v>2019</v>
@@ -22747,7 +22888,7 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B27" s="52">
         <v>2019</v>
@@ -22776,7 +22917,7 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B28" s="52">
         <v>2019</v>
@@ -22805,7 +22946,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B29" s="52">
         <v>2019</v>
@@ -22834,7 +22975,7 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B30" s="52">
         <v>2019</v>
@@ -22863,7 +23004,7 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B31" s="52">
         <v>2019</v>
@@ -22892,7 +23033,7 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B32" s="52">
         <v>2019</v>
@@ -22921,7 +23062,7 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" s="52">
         <v>2019</v>
@@ -22950,7 +23091,7 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B34" s="52">
         <v>2019</v>
@@ -22979,7 +23120,7 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" s="52">
         <v>2019</v>
@@ -23008,7 +23149,7 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B36" s="52">
         <v>2019</v>
@@ -23037,7 +23178,7 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="52">
         <v>2019</v>
@@ -23066,7 +23207,7 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" s="52">
         <v>2019</v>
@@ -23095,7 +23236,7 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39" s="52">
         <v>2019</v>
@@ -23124,7 +23265,7 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B40" s="52">
         <v>2019</v>
@@ -23153,7 +23294,7 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B41" s="52">
         <v>2019</v>
@@ -23182,7 +23323,7 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42" s="52">
         <v>2019</v>
@@ -23211,7 +23352,7 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B43" s="52">
         <v>2019</v>
@@ -23240,7 +23381,7 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B44" s="52">
         <v>2019</v>
@@ -23269,7 +23410,7 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B45" s="52">
         <v>2019</v>
@@ -23298,7 +23439,7 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B46" s="52">
         <v>2019</v>
@@ -23327,7 +23468,7 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B47" s="52">
         <v>2019</v>
@@ -23356,7 +23497,7 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B48" s="52">
         <v>2019</v>
@@ -23385,7 +23526,7 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B49" s="52">
         <v>2019</v>
@@ -23414,7 +23555,7 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B50" s="52">
         <v>2019</v>
@@ -23443,7 +23584,7 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B51" s="52">
         <v>2019</v>
@@ -23472,7 +23613,7 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B52" s="52">
         <v>2019</v>
@@ -23501,7 +23642,7 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" s="52">
         <v>2019</v>
@@ -23530,7 +23671,7 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B54" s="52">
         <v>2019</v>
@@ -23559,7 +23700,7 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B55" s="52">
         <v>2019</v>
@@ -23588,7 +23729,7 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B56" s="52">
         <v>2019</v>
@@ -23614,6 +23755,84 @@
       <c r="S56" s="53"/>
       <c r="T56" s="53"/>
       <c r="U56" s="53"/>
+    </row>
+    <row r="57" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="B57" s="18"/>
+      <c r="C57" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="18">
+        <f>SUM(D$5:D56)</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="18">
+        <f>SUM(E$5:E56)</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="18">
+        <f>SUM(F$5:F56)</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="18">
+        <f>SUM(G$5:G56)</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="18">
+        <f>SUM(H$5:H56)</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="18">
+        <f>SUM(I$5:I56)</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="18">
+        <f>SUM(J$5:J56)</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="18">
+        <f>SUM(K$5:K56)</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="18">
+        <f>SUM(L$5:L56)</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="18">
+        <f>SUM(M$5:M56)</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="18">
+        <f>SUM(N$5:N56)</f>
+        <v>0</v>
+      </c>
+      <c r="O57" s="18">
+        <f>SUM(O$5:O56)</f>
+        <v>0</v>
+      </c>
+      <c r="P57" s="18">
+        <f>SUM(P$5:P56)</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="18">
+        <f>SUM(Q$5:Q56)</f>
+        <v>0</v>
+      </c>
+      <c r="R57" s="18">
+        <f>SUM(R$5:R56)</f>
+        <v>0</v>
+      </c>
+      <c r="S57" s="18">
+        <f>SUM(S$5:S56)</f>
+        <v>0</v>
+      </c>
+      <c r="T57" s="18">
+        <f>SUM(T$5:T56)</f>
+        <v>0</v>
+      </c>
+      <c r="U57" s="18">
+        <f>SUM(U$5:U56)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -23638,28 +23857,28 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
         <v>92</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" t="s">
-        <v>96</v>
-      </c>
       <c r="G1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -23667,15 +23886,15 @@
         <v>2019</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J2">
         <v>2019</v>
@@ -23686,13 +23905,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
         <v>98</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>99</v>
-      </c>
-      <c r="C3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -23700,11 +23919,11 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" t="str">
-        <f>"Distribución de virus influenza y otros virus respiratorios en vigilancia centinela IRAG por semana epidmiológica. " &amp; IF($E$2 &lt;&gt; "",$E$2,IF($D$2 &lt;&gt; "",$D$2,$C$2)) &amp; " " &amp; IF($J$2=$K$2,$K$2,$J$2 &amp; " - " &amp;$K$2)</f>
-        <v>Distribución de virus influenza y otros virus respiratorios en vigilancia centinela IRAG por semana epidmiológica. Honduras 2019</v>
+        <f>"Distribución de virus influenza y otros virus respiratorios en vigilancia centinela IRAG por semana epidmiológica. "   &amp;$C$2&amp; IF(OR($E$2 &lt;&gt;"",$D$2 &lt;&gt;"" ), " - ", "") &amp; IF($E$2 &lt;&gt; "",$E$2,IF($D$2 &lt;&gt; "",$D$2,"")) &amp; ", "  &amp; IF($J$2 &lt;&gt; $K$2,$J$2 &amp; " - " &amp; $K$2,$K$2)</f>
+        <v>Distribución de virus influenza y otros virus respiratorios en vigilancia centinela IRAG por semana epidmiológica. Honduras, 2019</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -23712,11 +23931,11 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" t="str">
-        <f>"Porcentaje de Pruebas Positivas a Influenza, en comparación con Otros Virus Respiratorios, por semana epidemiológica. " &amp; IF($E$2 &lt;&gt; "",$E$2,IF($D$2 &lt;&gt; "",$D$2,$C$2)) &amp; " " &amp;   IF($J$2=$K$2,$K$2,$J$2 &amp; " - " &amp;$K$2)</f>
-        <v>Porcentaje de Pruebas Positivas a Influenza, en comparación con Otros Virus Respiratorios, por semana epidemiológica. Honduras 2019</v>
+        <f>"Porcentaje de Pruebas Positivas a Influenza, en comparación con Otros Virus Respiratorios, por semana epidemiológica. "   &amp;$C$2&amp; IF(OR($E$2 &lt;&gt;"",$D$2 &lt;&gt;"" ), " - ", "") &amp; IF($E$2 &lt;&gt; "",$E$2,IF($D$2 &lt;&gt; "",$D$2,"")) &amp; ", "  &amp; IF($J$2 &lt;&gt; $K$2,$J$2 &amp; " - " &amp; $K$2,$K$2)</f>
+        <v>Porcentaje de Pruebas Positivas a Influenza, en comparación con Otros Virus Respiratorios, por semana epidemiológica. Honduras, 2019</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -23724,11 +23943,11 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" t="str">
-        <f>"Distribución de influenza (tipos y subtipos) por semana epidemiológica. " &amp; IF($E$2 &lt;&gt; "",$E$2,IF($D$2 &lt;&gt; "",$D$2,$C$2)) &amp; " "  &amp; IF($J$2=$K$2,$K$2,$J$2 &amp; " - " &amp;$K$2)</f>
-        <v>Distribución de influenza (tipos y subtipos) por semana epidemiológica. Honduras 2019</v>
+        <f>"Distribución de influenza (tipos y subtipos) por semana epidemiológica. "   &amp;$C$2&amp; IF(OR($E$2 &lt;&gt;"",$D$2 &lt;&gt;"" ), " - ", "") &amp; IF($E$2 &lt;&gt; "",$E$2,IF($D$2 &lt;&gt; "",$D$2,"")) &amp; ", "  &amp; IF($J$2 &lt;&gt; $K$2,$J$2 &amp; " - " &amp; $K$2,$K$2)</f>
+        <v>Distribución de influenza (tipos y subtipos) por semana epidemiológica. Honduras, 2019</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -23736,11 +23955,11 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" t="str">
-        <f>"Distribución de influenza B según linaje y semana epidemiológica. "&amp; IF($E$2 &lt;&gt; "",$E$2,IF($D$2 &lt;&gt; "",$D$2,$C$2)) &amp; " "  &amp; IF($J$2=$K$2,$K$2,$J$2 &amp; " - " &amp;$K$2)</f>
-        <v>Distribución de influenza B según linaje y semana epidemiológica. Honduras 2019</v>
+        <f>"Distribución de influenza B según linaje y semana epidemiológica. "  &amp;$C$2&amp; IF(OR($E$2 &lt;&gt;"",$D$2 &lt;&gt;"" ), " - ", "") &amp; IF($E$2 &lt;&gt; "",$E$2,IF($D$2 &lt;&gt; "",$D$2,"")) &amp; ", "  &amp; IF($J$2 &lt;&gt; $K$2,$J$2 &amp; " - " &amp; $K$2,$K$2)</f>
+        <v>Distribución de influenza B según linaje y semana epidemiológica. Honduras, 2019</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -23748,11 +23967,11 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="33" t="str">
-        <f>"Proporción acumulada de los virus de influenza. "&amp; IF($E$2 &lt;&gt; "",$E$2,IF($D$2 &lt;&gt; "",$D$2,$C$2)) &amp; " "  &amp;  $K$2</f>
-        <v>Proporción acumulada de los virus de influenza. Honduras 2019</v>
+        <f>"Proporción acumulada de los virus de influenza. "  &amp;$C$2&amp; IF(OR($E$2 &lt;&gt;"",$D$2 &lt;&gt;"" ), " - ", "") &amp; IF($E$2 &lt;&gt; "",$E$2,IF($D$2 &lt;&gt; "",$D$2,"")) &amp; ", "  &amp; IF($J$2 &lt;&gt; $K$2,$J$2 &amp; " - " &amp; $K$2,$K$2)</f>
+        <v>Proporción acumulada de los virus de influenza. Honduras, 2019</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -23760,11 +23979,11 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" t="str">
-        <f>"Proporción acumulada de los virus de influenza y otros virus respiratorios. " &amp; IF($E$2 &lt;&gt; "",$E$2,IF($D$2 &lt;&gt; "",$D$2,$C$2)) &amp; " "   &amp;$K$2</f>
-        <v>Proporción acumulada de los virus de influenza y otros virus respiratorios. Honduras 2019</v>
+        <f>"Proporción acumulada de los virus de influenza y otros virus respiratorios. "   &amp;$C$2&amp; IF(OR($E$2 &lt;&gt;"",$D$2 &lt;&gt;"" ), " - ", "") &amp; IF($E$2 &lt;&gt; "",$E$2,IF($D$2 &lt;&gt; "",$D$2,"")) &amp; ", "  &amp; IF($J$2 &lt;&gt; $K$2,$J$2 &amp; " - " &amp; $K$2,$K$2)</f>
+        <v>Proporción acumulada de los virus de influenza y otros virus respiratorios. Honduras, 2019</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -23772,7 +23991,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="36" t="str">
         <f>"Vigilancia centinela de IRAG
@@ -23790,7 +24009,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="36" t="str">
         <f xml:space="preserve"> IF($E$2 &lt;&gt; "",$E$2,IF($D$2 &lt;&gt; "",$D$2,$C$2)) &amp;" - vigilancia centinela de IRAG
@@ -23804,7 +24023,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="36" t="str">
         <f>"Vigilancia centinela de IRAG
@@ -23821,7 +24040,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="36" t="str">
         <f>"Casos de IRAG con muestras positivas a influenza, VSR y OVR, por semana epidemiológica. " &amp; IF($E$2 &lt;&gt; "",$E$2,IF($D$2 &lt;&gt; "",$D$2,$C$2)) &amp; " "  &amp; IF($J$2=$K$2,$K$2,$J$2 &amp; " - " &amp;$K$2)</f>
@@ -23833,7 +24052,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" s="36" t="str">
         <f>"Vigilancia centinela de IRAG
@@ -23850,7 +24069,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="36" t="str">
         <f>"Vigilancia centinela de IRAG
@@ -23867,7 +24086,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="38" t="str">
         <f>"Vigilancia centinela de IRAG
@@ -23883,7 +24102,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="38" t="str">
         <f>"Vigilancia centinela de IRAG
@@ -23899,7 +24118,7 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="38" t="str">
         <f>"Vigilancia centinela de IRAG
@@ -23915,7 +24134,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" t="str">
         <f>"Distribución de virus influenza y otros virus respiratorios en vigilancia Centinela IRAG por Semana Epidemiológica. " &amp; IF($E$2 &lt;&gt; "",$E$2,IF($D$2 &lt;&gt; "",$D$2,$C$2)) &amp; " "  &amp; IF($J$2=$K$2,$K$2,$J$2 &amp; " - " &amp;$K$2)</f>
@@ -23927,7 +24146,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="38" t="str">
         <f>"Vigilancia centinela de IRAG
@@ -23943,7 +24162,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="38" t="str">
         <f>"Vigilancia centinela de IRAG
